--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1383521.760523812</v>
+        <v>1359742.074468367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1918874.523826588</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4008798.132631239</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9900491.0034204</v>
+        <v>11161499.13848754</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>269.010098463741</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.94101498269133</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>133.9566202902066</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>30.85507107620364</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>200.9124899777286</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>401.3550844723776</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>27.77238941128248</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>25.31590541686246</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883384993</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>339.0399185806811</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.10844059186254</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.1796758466991</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113147</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>101.7806877295493</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>117.1757456344403</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>105.090328119097</v>
       </c>
       <c r="U19" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.4797853959765</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.30026924196</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.193684393253181</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>49.14757544257679</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>33.35146980185944</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>192.6446143324774</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>259.3061888821588</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.34190763938365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.6864005999555</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>99.43636052933117</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.9054987607761</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2651.754126389241</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2475.576638703411</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2256.941971675474</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2256.941971675474</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1925.879084331904</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1573.11042906179</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1199.64467080071</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>809.505338824898</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>234.9092237180853</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>234.9092237180853</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2665.982352557411</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2489.804864871581</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2489.804864871581</v>
       </c>
       <c r="U5" t="n">
-        <v>2494.20718194981</v>
+        <v>2236.043079509672</v>
       </c>
       <c r="V5" t="n">
-        <v>2494.20718194981</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W5" t="n">
-        <v>2494.20718194981</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X5" t="n">
-        <v>2494.20718194981</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y5" t="n">
-        <v>2494.20718194981</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816298</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1577.945354755378</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1208.982837814967</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>850.7171392082162</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2354.684526795312</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>1964.5451948195</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>921.1936903636243</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240411</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261307</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G13" t="n">
-        <v>264.3261428644631</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5777702969933</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>921.1936903636246</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>325.6879402326646</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C16" t="n">
-        <v>156.7517573047577</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>156.7517573047577</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>156.7517573047577</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>156.7517573047577</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>1380.556931533215</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>1091.428292746773</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>1091.428292746773</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.3364050629043</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775513</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>857.5427825698958</v>
       </c>
       <c r="N18" t="n">
         <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905256</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775513</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>354.6908600059914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>354.6908600059914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>354.6908600059914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>354.6908600059914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>354.6908600059914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>354.6908600059914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488389</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>644.108030042952</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>354.6908600059914</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>354.6908600059914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>354.6908600059914</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6016,13 +6016,13 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
@@ -6074,19 +6074,19 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028589</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347409</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.130855347409</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1047.141304449391</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y25" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6205,25 +6205,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6247,25 +6247,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>251.3864319045509</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>251.3864319045509</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>103.4733383221578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>103.4733383221578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>103.4733383221578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>103.4733383221578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324578</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281743</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945776</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601279</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557903</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557903</v>
+        <v>1159.855084922379</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557903</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3492.843747251887</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C34" t="n">
-        <v>3492.843747251887</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D34" t="n">
-        <v>3492.843747251887</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288848</v>
+        <v>791.4116970332115</v>
       </c>
       <c r="W34" t="n">
-        <v>3492.843747251887</v>
+        <v>791.4116970332115</v>
       </c>
       <c r="X34" t="n">
-        <v>3492.843747251887</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y34" t="n">
-        <v>3492.843747251887</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3606.045341414586</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>3606.045341414586</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4598.92912969898</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>4344.244641493094</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>4054.827471456133</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>3826.837920558116</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>3606.045341414586</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7156,55 +7156,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1198.555492262009</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>909.4268534755672</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>909.4268534755672</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>620.0096834386067</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050821</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776768</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783519</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776765</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>15.83804904622968</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>104.6241510367942</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445214</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208043</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>9.537387592120396</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>50.31167753056067</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787166</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>2.586375558166765e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>30.69118209778793</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>82.85718120047571</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>14.74113413690415</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.52911452950164</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>104.3718154239489</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>116.4572329392922</v>
       </c>
       <c r="U19" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>4.434042971559649</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.5317109399773</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>104.2255610710188</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>172.3999856158125</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>113.0824928447097</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>59.4930289913506</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>26.93116351641856</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.2427457127112</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.14557958198182</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>122.1112005290581</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>711682.0831084221</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>711682.0831084221</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>711682.083108422</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711682.0831084221</v>
+        <v>952727.6193013646</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711682.083108422</v>
+        <v>952727.6193013646</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="15">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173333</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173335</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114799</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
@@ -26349,10 +26349,10 @@
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>525160.0364768954</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>500180.5412663656</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.776598305194057e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>130174.4719869591</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>18228.92756966326</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>18228.92756966326</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26444,7 +26444,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372988.0138302838</v>
+        <v>-378028.9421038206</v>
       </c>
       <c r="C6" t="n">
-        <v>216979.8653842606</v>
+        <v>211938.9371107239</v>
       </c>
       <c r="D6" t="n">
-        <v>216979.8653842606</v>
+        <v>211938.937110724</v>
       </c>
       <c r="E6" t="n">
-        <v>250607.4653842608</v>
+        <v>-203035.6575952933</v>
       </c>
       <c r="F6" t="n">
-        <v>250607.4653842608</v>
+        <v>322124.3788816021</v>
       </c>
       <c r="G6" t="n">
-        <v>-177081.5711250414</v>
+        <v>322124.3788816021</v>
       </c>
       <c r="H6" t="n">
-        <v>323098.9701413242</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="I6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816021</v>
       </c>
       <c r="J6" t="n">
-        <v>146675.7509487311</v>
+        <v>145701.1596890095</v>
       </c>
       <c r="K6" t="n">
-        <v>323098.9701413242</v>
+        <v>322124.3788816027</v>
       </c>
       <c r="L6" t="n">
-        <v>323098.9701413243</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="M6" t="n">
-        <v>323098.9701413241</v>
+        <v>187323.3636477655</v>
       </c>
       <c r="N6" t="n">
-        <v>323098.9701413239</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="O6" t="n">
-        <v>192924.4981543649</v>
+        <v>322124.3788816022</v>
       </c>
       <c r="P6" t="n">
-        <v>323098.9701413241</v>
+        <v>322124.3788816024</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541005</v>
@@ -26764,7 +26764,7 @@
         <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,25 +26795,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>452.6387412370138</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>540.9263704990179</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990177</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990179</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.009001502131611</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.62333149860807</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>146.643323397689</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730086</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>495.5025975092013</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262123</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>495.5025975092011</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958058</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>326.2624260966958</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958058</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>311.7175659683189</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.765211552329</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359742.074468367</v>
+        <v>1379155.59001417</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>3522967.67585558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11161499.13848754</v>
+        <v>10100942.61497029</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>269.010098463741</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>106.2184727157452</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.9566202902066</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>30.85507107620364</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>79.7859894428951</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>25.60787784076875</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.77238941128248</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.31590541686246</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>201.3302879382942</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>335.2129948491659</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883384993</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>45.44580843958676</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183525</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.1796758466991</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>5.239037279933998</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>197.6697773318297</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113147</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.16330391108999</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>117.1757456344403</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>7.496242627249363</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>105.090328119097</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>61.67102483656849</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28.56876306769565</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>115.9747399561817</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>49.14757544257679</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.8155841663236</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>192.6446143324774</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>115.5269768002176</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>160.9317268742382</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>152.8782146791269</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>99.43636052933117</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2534.829014967155</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2534.829014967155</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>550.7989714776633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>403.9090239797529</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>234.9092237180853</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>234.9092237180853</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402.0066065949742</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>402.0066065949742</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2665.982352557411</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2489.804864871581</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2489.804864871581</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2236.043079509672</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1904.980192166102</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1552.211536895988</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X5" t="n">
-        <v>1178.745778634908</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.606446659096</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1448.013466588444</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2669.096172420968</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2669.096172420968</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.096172420968</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2338.033285077397</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482877</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>227.427697035952</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355886</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>79.51460345355886</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403565</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643321</v>
+        <v>3025.098749216833</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899124</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095566</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.883153840717</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>2743.820266497146</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2743.820266497146</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2743.820266497146</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2353.680934521334</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571605</v>
+        <v>141.5996147899771</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636243</v>
+        <v>645.961154656095</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307618</v>
+        <v>1959.712196375981</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526315</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>558.4247705570544</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>389.4885876291475</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028581</v>
+        <v>389.4885876291475</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>389.4885876291475</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>73.99179512662053</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>175.0397247222301</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>359.8727196230482</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>565.1423203422858</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>770.9656851783898</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669884</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1070.508157165604</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.886294955175</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1090.100879744681</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>784.5093065490028</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>779.2173497005846</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>558.4247705570544</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.3213845506</v>
+        <v>1845.785874634118</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610188</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003438</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405193</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155859</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080544</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331026</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>3543.374718827854</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465298</v>
+        <v>3289.683015573005</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121728</v>
+        <v>2958.620128229434</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851613</v>
+        <v>2605.85147295932</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590533</v>
+        <v>2232.38571469824</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614722</v>
+        <v>2232.38571469824</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571606</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636246</v>
+        <v>907.7817392985478</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307618</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526315</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>269.7279334390471</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>269.7279334390471</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>119.6112940267114</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>119.6112940267114</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1380.556931533215</v>
+        <v>848.2972798983279</v>
       </c>
       <c r="U16" t="n">
-        <v>1091.428292746773</v>
+        <v>559.1451034760078</v>
       </c>
       <c r="V16" t="n">
-        <v>1091.428292746773</v>
+        <v>559.1451034760078</v>
       </c>
       <c r="W16" t="n">
-        <v>802.0111227098126</v>
+        <v>269.7279334390471</v>
       </c>
       <c r="X16" t="n">
-        <v>802.0111227098126</v>
+        <v>269.7279334390471</v>
       </c>
       <c r="Y16" t="n">
-        <v>581.2185435662825</v>
+        <v>269.7279334390471</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.542980734167</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698958</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1281.689320534781</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1281.689320534781</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1281.689320534781</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1281.689320534781</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>1281.689320534781</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>1060.896741391251</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,31 +5737,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5940,19 +5940,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,16 +6004,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2227.840212610279</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>306.4010034395785</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>306.4010034395785</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>306.4010034395785</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>306.4010034395785</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>159.5110559416682</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X25" t="n">
-        <v>318.009670603816</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="26">
@@ -6205,67 +6205,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>828.2191568567731</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>659.2829739288662</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>509.1663345165305</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>361.2532409341374</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>214.363293436227</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1449.27225495934</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1449.27225495934</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>1449.27225495934</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>1159.855084922379</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X31" t="n">
-        <v>931.8655340243621</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.072954880832</v>
+        <v>1009.867621687013</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.4221461351941</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>563.4221461351941</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.12275119798</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1077.337335987485</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V34" t="n">
-        <v>791.4116970332115</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W34" t="n">
-        <v>791.4116970332115</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X34" t="n">
-        <v>563.4221461351941</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.4221461351941</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6940,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>912.6535453899926</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>623.236375353032</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1198.555492262009</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>909.4268534755672</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>909.4268534755672</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>620.0096834386067</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928625</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>91.32084226272409</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776768</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445224</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>167.9634363311209</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776765</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,13 +9251,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>15.83804904622968</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>104.6241510367942</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208069</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>145.0056947925441</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>110.3648512204696</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>269.4549792745179</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.5316190581546</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>339.6650139302388</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23181,28 +23181,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>47.52084681431467</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.586375558166765e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176914</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>14.74113413690415</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>220.4706181091032</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>167.6031144391778</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>100.2577441118412</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>104.3718154239489</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>172.3357375546879</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>116.4572329392922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="23">
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>104.8225436268091</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>120.0467099505167</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>50.51882850719585</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>172.3999856158125</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>2.105225817279688</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>59.4930289913506</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>33.08849621799476</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>91.20591644958984</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>72.83144070991028</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271363</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>122.1112005290581</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952727.6193013646</v>
+        <v>826633.0799895165</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952727.6193013646</v>
+        <v>826633.0799895164</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114795</v>
+        <v>371509.221262656</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114797</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114795</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>248146.768618843</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659104</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.776598305194057e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>62453.05588965298</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>69864.88484991113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378028.9421038206</v>
+        <v>-373594.8552048657</v>
       </c>
       <c r="C6" t="n">
-        <v>211938.9371107239</v>
+        <v>216373.0240096788</v>
       </c>
       <c r="D6" t="n">
-        <v>211938.937110724</v>
+        <v>216373.0240096788</v>
       </c>
       <c r="E6" t="n">
-        <v>-203035.6575952933</v>
+        <v>37119.95043317111</v>
       </c>
       <c r="F6" t="n">
-        <v>322124.3788816021</v>
+        <v>285266.7190520139</v>
       </c>
       <c r="G6" t="n">
-        <v>322124.3788816021</v>
+        <v>59238.62174944127</v>
       </c>
       <c r="H6" t="n">
-        <v>322124.3788816023</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="I6" t="n">
-        <v>322124.3788816021</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="J6" t="n">
-        <v>145701.1596890095</v>
+        <v>146578.2918227589</v>
       </c>
       <c r="K6" t="n">
-        <v>322124.3788816027</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="L6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="M6" t="n">
-        <v>187323.3636477655</v>
+        <v>260548.4551256989</v>
       </c>
       <c r="N6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="O6" t="n">
-        <v>322124.3788816022</v>
+        <v>253136.6261654406</v>
       </c>
       <c r="P6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153518</v>
       </c>
     </row>
   </sheetData>
@@ -26740,28 +26740,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>593.4761003380638</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827566</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827565</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370131</v>
+        <v>215.7324361209771</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160367</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>250.6101663282009</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>250.6101663282009</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>290.3162041708164</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>250.6101663282009</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>112.9202716085207</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.009001502131611</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.62333149860807</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>146.643323397689</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>141.9938968421885</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>2.385833569198245</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055153</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651542</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>202.4946418937397</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>303.4869768779014</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>376.5024309712523</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>418.9314987074816</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>425.7102483359661</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>401.9861157822511</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>343.0858495426693</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>257.6431848457571</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>149.8691179411494</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>54.36718245810506</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.276533498840364</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985299</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>43.95082441182831</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.6044214847381</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>206.1321659070424</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>277.1701353512816</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724843</v>
+        <v>323.4444746842447</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>332.0050874900646</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>303.719792594707</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>162.9483813607454</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>79.25705355080788</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>5.145325813308307</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.08398246702897133</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.070202803888312</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>9.515075838206997</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>75.66333823490363</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104763</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>48.12020970937807</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>18.65071613685357</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>4.572684707522785</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.05837469839390798</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>190.5453525391272</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>407.5425384040856</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>638.0987989730413</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>633.6441091513593</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>552.6880856233097</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588824</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>247.6524856312123</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953154</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>68.29072693268344</v>
       </c>
       <c r="L12" t="n">
-        <v>249.257704956024</v>
+        <v>509.4561008748666</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>680.0057497502848</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>252.4443904129867</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092013</v>
+        <v>428.2502711927638</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>22.96660727472388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>102.068615753141</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>186.6999948493112</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>3.452847899353245</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>349.2738770933472</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092011</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>326.2624260966958</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>311.7175659683189</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768312</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
